--- a/Tabla Mortalidades.xlsx
+++ b/Tabla Mortalidades.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeconce-my.sharepoint.com/personal/pareyes2018_udec_cl/Documents/UdeC Full/Udec/Data Interpretation/Homework 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeconce-my.sharepoint.com/personal/pareyes2018_udec_cl/Documents/UdeC Full/Udec/Data Interpretation/Baby Names/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B29CB59-E37B-4804-BB66-15E5D87DEDF8}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B046652-416C-44FE-BD93-F8C60FD967D3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mujeres" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +64,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -89,10 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,8 +382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,899 +406,899 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.3152599999999996E-3</v>
+        <v>5.2347699999999997E-3</v>
       </c>
       <c r="C2">
         <f>1-B2</f>
-        <v>0.99368473999999996</v>
+        <v>0.99476523000000006</v>
       </c>
       <c r="D2">
         <f>PRODUCT($C$2:C2)</f>
-        <v>0.99368473999999996</v>
+        <v>0.99476523000000006</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.7939000000000005E-4</v>
+        <v>3.4511999999999998E-4</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="0">1-B3</f>
-        <v>0.99942061000000004</v>
+        <v>0.99965488000000002</v>
       </c>
       <c r="D3">
         <f>PRODUCT($C$2:C3)</f>
-        <v>0.99310900899849142</v>
+        <v>0.99442191662382251</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.5759000000000002E-4</v>
+        <v>2.5995E-4</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.99964240999999998</v>
+        <v>0.99974004999999999</v>
       </c>
       <c r="D4">
         <f>PRODUCT($C$2:C4)</f>
-        <v>0.99275388314796364</v>
+        <v>0.99416341664659613</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.6509999999999999E-4</v>
+        <v>1.7628000000000001E-4</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.99973489999999998</v>
+        <v>0.99982371999999997</v>
       </c>
       <c r="D5">
         <f>PRODUCT($C$2:C5)</f>
-        <v>0.99249070409354112</v>
+        <v>0.99398816551950964</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.1872999999999999E-4</v>
+        <v>1.6557E-4</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.99978127000000006</v>
+        <v>0.99983443000000005</v>
       </c>
       <c r="D6">
         <f>PRODUCT($C$2:C6)</f>
-        <v>0.99227361660183477</v>
+        <v>0.99382359089894468</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.9128999999999999E-4</v>
+        <v>1.3647E-4</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.99980871000000004</v>
+        <v>0.99986352999999994</v>
       </c>
       <c r="D7">
         <f>PRODUCT($C$2:C7)</f>
-        <v>0.99208380458171508</v>
+        <v>0.99368796379349467</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.7299000000000001E-4</v>
+        <v>1.2548999999999999E-4</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.99982700999999996</v>
+        <v>0.99987451000000005</v>
       </c>
       <c r="D8">
         <f>PRODUCT($C$2:C8)</f>
-        <v>0.99191218400436043</v>
+        <v>0.99356326589091826</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.5469999999999999E-4</v>
+        <v>1.1668E-4</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.99984530000000005</v>
+        <v>0.99988332000000002</v>
       </c>
       <c r="D9">
         <f>PRODUCT($C$2:C9)</f>
-        <v>0.99175873518949498</v>
+        <v>0.99344733692905407</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.4553E-4</v>
+        <v>1.0977E-4</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.99985447000000005</v>
+        <v>0.99989022999999999</v>
       </c>
       <c r="D10">
         <f>PRODUCT($C$2:C10)</f>
-        <v>0.99161440454076288</v>
+        <v>0.99333828621487941</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.4545000000000001E-4</v>
+        <v>1.0448E-4</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.99985455000000001</v>
+        <v>0.99989552000000004</v>
       </c>
       <c r="D11">
         <f>PRODUCT($C$2:C11)</f>
-        <v>0.99147017422562245</v>
+        <v>0.99323450223073573</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.4537999999999999E-4</v>
+        <v>1.0517E-4</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.99985462000000003</v>
+        <v>0.99989483000000001</v>
       </c>
       <c r="D12">
         <f>PRODUCT($C$2:C12)</f>
-        <v>0.99132603429169353</v>
+        <v>0.99313004375813618</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.4531E-4</v>
+        <v>1.0854E-4</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.99985469000000005</v>
+        <v>0.99989145999999995</v>
       </c>
       <c r="D13">
         <f>PRODUCT($C$2:C13)</f>
-        <v>0.99118198470565066</v>
+        <v>0.99302224942318662</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.5431E-4</v>
+        <v>1.2108E-4</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.99984569000000001</v>
+        <v>0.99987892</v>
       </c>
       <c r="D14">
         <f>PRODUCT($C$2:C14)</f>
-        <v>0.99102903541359078</v>
+        <v>0.99290201428922642</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.6330000000000001E-4</v>
+        <v>1.4433999999999999E-4</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.99983670000000002</v>
+        <v>0.99985566000000003</v>
       </c>
       <c r="D15">
         <f>PRODUCT($C$2:C15)</f>
-        <v>0.99086720037210774</v>
+        <v>0.99275869881248391</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.8136000000000001E-4</v>
+        <v>1.7483E-4</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.99981863999999998</v>
+        <v>0.99982517000000004</v>
       </c>
       <c r="D16">
         <f>PRODUCT($C$2:C16)</f>
-        <v>0.99068749669664824</v>
+        <v>0.99258513480917054</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.9939E-4</v>
+        <v>2.1791000000000001E-4</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.99980060999999998</v>
+        <v>0.99978208999999996</v>
       </c>
       <c r="D17">
         <f>PRODUCT($C$2:C17)</f>
-        <v>0.99048996351668184</v>
+        <v>0.99236884058244423</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.2646999999999999E-4</v>
+        <v>2.5208000000000001E-4</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.99977353000000002</v>
+        <v>0.99974792000000001</v>
       </c>
       <c r="D18">
         <f>PRODUCT($C$2:C18)</f>
-        <v>0.99026564725464428</v>
+        <v>0.99211868424511018</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.4446E-4</v>
+        <v>2.7700000000000001E-4</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0.99975554</v>
+        <v>0.99972300000000003</v>
       </c>
       <c r="D19">
         <f>PRODUCT($C$2:C19)</f>
-        <v>0.99002356691451643</v>
+        <v>0.99184386736957431</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.6243000000000002E-4</v>
+        <v>2.8825999999999998E-4</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0.99973756999999996</v>
+        <v>0.99971173999999996</v>
       </c>
       <c r="D20">
         <f>PRODUCT($C$2:C20)</f>
-        <v>0.98976375502985103</v>
+        <v>0.9915579584563663</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.8038999999999999E-4</v>
+        <v>2.8949999999999999E-4</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0.99971960999999998</v>
+        <v>0.99971049999999995</v>
       </c>
       <c r="D21">
         <f>PRODUCT($C$2:C21)</f>
-        <v>0.98948623517057821</v>
+        <v>0.99127090242739313</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.9833000000000003E-4</v>
+        <v>2.8630000000000002E-4</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0.99970166999999999</v>
+        <v>0.99971370000000004</v>
       </c>
       <c r="D22">
         <f>PRODUCT($C$2:C22)</f>
-        <v>0.98919104174203976</v>
+        <v>0.99098710156802816</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.0720999999999998E-4</v>
+        <v>2.8873000000000001E-4</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0.99969279</v>
+        <v>0.99971127000000004</v>
       </c>
       <c r="D23">
         <f>PRODUCT($C$2:C23)</f>
-        <v>0.98888715236210623</v>
+        <v>0.99070097386219247</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.1608E-4</v>
+        <v>2.9155000000000001E-4</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0.99968391999999995</v>
+        <v>0.99970844999999997</v>
       </c>
       <c r="D24">
         <f>PRODUCT($C$2:C24)</f>
-        <v>0.9885745849109876</v>
+        <v>0.99041213499326297</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.3398E-4</v>
+        <v>2.9596000000000001E-4</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0.99966602000000004</v>
+        <v>0.99970404000000002</v>
       </c>
       <c r="D25">
         <f>PRODUCT($C$2:C25)</f>
-        <v>0.98824442077111907</v>
+        <v>0.99011901261779034</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3.4283000000000002E-4</v>
+        <v>3.0215E-4</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0.99965716999999998</v>
+        <v>0.99969785</v>
       </c>
       <c r="D26">
         <f>PRODUCT($C$2:C26)</f>
-        <v>0.98790562093634604</v>
+        <v>0.98981984815812785</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.5209999999999999E-4</v>
+        <v>3.0358000000000002E-4</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0.99964790000000003</v>
+        <v>0.99969642000000003</v>
       </c>
       <c r="D27">
         <f>PRODUCT($C$2:C27)</f>
-        <v>0.98755777936721434</v>
+        <v>0.98951935864862406</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3.6094000000000002E-4</v>
+        <v>3.1097999999999998E-4</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0.99963906000000002</v>
+        <v>0.99968902000000004</v>
       </c>
       <c r="D28">
         <f>PRODUCT($C$2:C28)</f>
-        <v>0.98720133026232959</v>
+        <v>0.98921163791847155</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4.1599999999999997E-4</v>
+        <v>3.2281999999999998E-4</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0.99958400000000003</v>
+        <v>0.99967718000000005</v>
       </c>
       <c r="D29">
         <f>PRODUCT($C$2:C29)</f>
-        <v>0.98679065450894043</v>
+        <v>0.98889230061751876</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.7105999999999998E-4</v>
+        <v>3.4038999999999999E-4</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0.99952894000000003</v>
+        <v>0.99965961000000003</v>
       </c>
       <c r="D30">
         <f>PRODUCT($C$2:C30)</f>
-        <v>0.98632581690322751</v>
+        <v>0.9885556915673116</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.2612000000000004E-4</v>
+        <v>3.6272000000000002E-4</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>0.99947388000000004</v>
+        <v>0.99963727999999996</v>
       </c>
       <c r="D31">
         <f>PRODUCT($C$2:C31)</f>
-        <v>0.98580689116443843</v>
+        <v>0.98819712264686632</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.8224999999999998E-4</v>
+        <v>3.8058999999999999E-4</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>0.99941774999999999</v>
+        <v>0.99961940999999999</v>
       </c>
       <c r="D32">
         <f>PRODUCT($C$2:C32)</f>
-        <v>0.98523290510205797</v>
+        <v>0.98782102470395816</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6.3741000000000004E-4</v>
+        <v>4.0782999999999998E-4</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>0.99936259000000005</v>
+        <v>0.99959217</v>
       </c>
       <c r="D33">
         <f>PRODUCT($C$2:C33)</f>
-        <v>0.98460490779601695</v>
+        <v>0.98741816165545315</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6.9256999999999999E-4</v>
+        <v>4.3479E-4</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>0.99930743</v>
+        <v>0.99956520999999998</v>
       </c>
       <c r="D34">
         <f>PRODUCT($C$2:C34)</f>
-        <v>0.98392299997502464</v>
+        <v>0.98698884211294691</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7.4773000000000005E-4</v>
+        <v>4.6033000000000001E-4</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>0.99925227000000005</v>
+        <v>0.99953966999999999</v>
       </c>
       <c r="D35">
         <f>PRODUCT($C$2:C35)</f>
-        <v>0.98318729123025339</v>
+        <v>0.98653450153925704</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>8.0289000000000001E-4</v>
+        <v>4.8616000000000002E-4</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>0.99919711</v>
+        <v>0.99951383999999999</v>
       </c>
       <c r="D36">
         <f>PRODUCT($C$2:C36)</f>
-        <v>0.98239789998599758</v>
+        <v>0.98605488792598872</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>8.5926999999999998E-4</v>
+        <v>5.1674999999999996E-4</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>0.99914073000000003</v>
+        <v>0.99948325000000005</v>
       </c>
       <c r="D37">
         <f>PRODUCT($C$2:C37)</f>
-        <v>0.98155375494247665</v>
+        <v>0.98554534406265304</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>9.1451E-4</v>
+        <v>5.5157999999999997E-4</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>0.99908549000000002</v>
+        <v>0.99944842</v>
       </c>
       <c r="D38">
         <f>PRODUCT($C$2:C38)</f>
-        <v>0.98065611421804422</v>
+        <v>0.98500173696177495</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>9.6975000000000002E-4</v>
+        <v>5.9219000000000003E-4</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>0.99903025000000001</v>
+        <v>0.99940781000000001</v>
       </c>
       <c r="D39">
         <f>PRODUCT($C$2:C39)</f>
-        <v>0.97970512295128132</v>
+        <v>0.98441842878316355</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.0249899999999999E-3</v>
+        <v>6.3966999999999995E-4</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>0.99897501</v>
+        <v>0.99936033000000002</v>
       </c>
       <c r="D40">
         <f>PRODUCT($C$2:C40)</f>
-        <v>0.97870093499730748</v>
+        <v>0.98378872584682386</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.0802299999999999E-3</v>
+        <v>6.9404999999999998E-4</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>0.99891976999999998</v>
+        <v>0.99930595</v>
       </c>
       <c r="D41">
         <f>PRODUCT($C$2:C41)</f>
-        <v>0.97764371288629537</v>
+        <v>0.98310592728164992</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.1350100000000001E-3</v>
+        <v>7.6311E-4</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>0.99886498999999995</v>
+        <v>0.99923689000000004</v>
       </c>
       <c r="D42">
         <f>PRODUCT($C$2:C42)</f>
-        <v>0.97653407749573229</v>
+        <v>0.98235570931748206</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.1902200000000001E-3</v>
+        <v>8.3184000000000003E-4</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>0.99880977999999998</v>
+        <v>0.99916815999999997</v>
       </c>
       <c r="D43">
         <f>PRODUCT($C$2:C43)</f>
-        <v>0.97537178710601535</v>
+        <v>0.98153854654424333</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.24544E-3</v>
+        <v>9.0658999999999998E-4</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>0.99875455999999996</v>
+        <v>0.99909340999999996</v>
       </c>
       <c r="D44">
         <f>PRODUCT($C$2:C44)</f>
-        <v>0.97415702006748195</v>
+        <v>0.98064869351333173</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.3006599999999999E-3</v>
+        <v>9.8723999999999991E-4</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>0.99869934000000005</v>
+        <v>0.99901276000000006</v>
       </c>
       <c r="D45">
         <f>PRODUCT($C$2:C45)</f>
-        <v>0.97288997299776103</v>
+        <v>0.9796805578971477</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.3558699999999999E-3</v>
+        <v>1.07526E-3</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>0.99864412999999996</v>
+        <v>0.99892473999999998</v>
       </c>
       <c r="D46">
         <f>PRODUCT($C$2:C46)</f>
-        <v>0.97157086067007248</v>
+        <v>0.97862714658046324</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.41052E-3</v>
+        <v>1.1908999999999999E-3</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>0.99858948000000003</v>
+        <v>0.99880910000000001</v>
       </c>
       <c r="D47">
         <f>PRODUCT($C$2:C47)</f>
-        <v>0.97020044053968013</v>
+        <v>0.97746169951160056</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.4715900000000001E-3</v>
+        <v>1.3021700000000001E-3</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>0.99852841000000003</v>
+        <v>0.99869783000000001</v>
       </c>
       <c r="D48">
         <f>PRODUCT($C$2:C48)</f>
-        <v>0.96877270327338638</v>
+        <v>0.9761888782103475</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.5578E-3</v>
+        <v>1.42457E-3</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>0.99844219999999995</v>
+        <v>0.99857543000000004</v>
       </c>
       <c r="D49">
         <f>PRODUCT($C$2:C49)</f>
-        <v>0.96726354915622703</v>
+        <v>0.97479822882011546</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.6692300000000001E-3</v>
+        <v>1.5588500000000001E-3</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>0.99833077000000003</v>
+        <v>0.99844115</v>
       </c>
       <c r="D50">
         <f>PRODUCT($C$2:C50)</f>
-        <v>0.965648963822069</v>
+        <v>0.97327866460111923</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.80579E-3</v>
+        <v>1.74592E-3</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>0.99819420999999997</v>
+        <v>0.99825408000000004</v>
       </c>
       <c r="D51">
         <f>PRODUCT($C$2:C51)</f>
-        <v>0.96390520457968876</v>
+        <v>0.97157939791501891</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.9675700000000001E-3</v>
+        <v>1.9111200000000001E-3</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>0.99803242999999997</v>
+        <v>0.99808887999999996</v>
       </c>
       <c r="D52">
         <f>PRODUCT($C$2:C52)</f>
-        <v>0.96200865361631382</v>
+        <v>0.96972259309607556</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="A53" s="3">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.1543999999999999E-3</v>
+        <v>2.0747600000000001E-3</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>0.9978456</v>
+        <v>0.99792524000000005</v>
       </c>
       <c r="D53">
         <f>PRODUCT($C$2:C53)</f>
-        <v>0.95993610217296288</v>
+        <v>0.96771065144882362</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+      <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.3663600000000001E-3</v>
+        <v>2.2275200000000002E-3</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>0.99763363999999999</v>
+        <v>0.99777247999999996</v>
       </c>
       <c r="D54">
         <f>PRODUCT($C$2:C54)</f>
-        <v>0.95766454777822485</v>
+        <v>0.96555505661850827</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+      <c r="A55" s="3">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.6034399999999998E-3</v>
+        <v>2.3783799999999998E-3</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>0.99739655999999999</v>
+        <v>0.99762161999999999</v>
       </c>
       <c r="D55">
         <f>PRODUCT($C$2:C55)</f>
-        <v>0.95517132558795714</v>
+        <v>0.96325859978294792</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.8657600000000002E-3</v>
+        <v>2.5409299999999998E-3</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>0.99713423999999995</v>
+        <v>0.99745907</v>
       </c>
       <c r="D56">
         <f>PRODUCT($C$2:C56)</f>
-        <v>0.95243403380994018</v>
+        <v>0.96081102710900146</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="1">
-        <v>3.1534800000000002E-3</v>
+      <c r="B57">
+        <v>2.7632400000000001E-3</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>0.99684651999999996</v>
+        <v>0.99723676000000006</v>
       </c>
       <c r="D57">
         <f>PRODUCT($C$2:C57)</f>
-        <v>0.9494305521330012</v>
+        <v>0.95815607564645289</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1299,15 +1306,15 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3.4669800000000001E-3</v>
+        <v>3.02323E-3</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>0.99653301999999999</v>
+        <v>0.99697676999999996</v>
       </c>
       <c r="D58">
         <f>PRODUCT($C$2:C58)</f>
-        <v>0.94613889539736717</v>
+        <v>0.95525934945387625</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1315,15 +1322,15 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3.8068099999999999E-3</v>
+        <v>3.32899E-3</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>0.99619318999999995</v>
+        <v>0.99667101000000002</v>
       </c>
       <c r="D59">
         <f>PRODUCT($C$2:C59)</f>
-        <v>0.94253712438897952</v>
+        <v>0.95207930063213786</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1331,15 +1338,15 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4.1739000000000004E-3</v>
+        <v>3.68061E-3</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>0.99582610000000005</v>
+        <v>0.99631939000000003</v>
       </c>
       <c r="D60">
         <f>PRODUCT($C$2:C60)</f>
-        <v>0.93860306868549237</v>
+        <v>0.94857506803743818</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1347,15 +1354,15 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>4.5696299999999999E-3</v>
+        <v>4.0777699999999997E-3</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>0.99543037000000001</v>
+        <v>0.99592223000000002</v>
       </c>
       <c r="D61">
         <f>PRODUCT($C$2:C61)</f>
-        <v>0.93431399994473507</v>
+        <v>0.94470699708224715</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1363,15 +1370,15 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.9988000000000003E-3</v>
+        <v>4.5988599999999998E-3</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>0.99500120000000003</v>
+        <v>0.99540114000000002</v>
       </c>
       <c r="D62">
         <f>PRODUCT($C$2:C62)</f>
-        <v>0.92964355112181141</v>
+        <v>0.94036242186164554</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1379,15 +1386,15 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.4579199999999998E-3</v>
+        <v>5.0959999999999998E-3</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>0.99454208</v>
+        <v>0.99490400000000001</v>
       </c>
       <c r="D63">
         <f>PRODUCT($C$2:C63)</f>
-        <v>0.92456963099127265</v>
+        <v>0.93557033495983855</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1395,15 +1402,15 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.9529099999999996E-3</v>
+        <v>5.6410499999999999E-3</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>0.99404709000000002</v>
+        <v>0.99435894999999996</v>
       </c>
       <c r="D64">
         <f>PRODUCT($C$2:C64)</f>
-        <v>0.91906575118924838</v>
+        <v>0.93029273592181327</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1411,15 +1418,15 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6.4877499999999996E-3</v>
+        <v>6.2362499999999996E-3</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>0.99351224999999999</v>
+        <v>0.99376374999999995</v>
       </c>
       <c r="D65">
         <f>PRODUCT($C$2:C65)</f>
-        <v>0.91310308236197035</v>
+        <v>0.92449119784742084</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1427,15 +1434,15 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7.0926599999999998E-3</v>
+        <v>6.8852899999999996E-3</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>0.99290734000000003</v>
+        <v>0.99311470999999996</v>
       </c>
       <c r="D66">
         <f>PRODUCT($C$2:C66)</f>
-        <v>0.90662675265382497</v>
+        <v>0.91812580784779396</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1443,15 +1450,15 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7.7271600000000003E-3</v>
+        <v>7.5899000000000001E-3</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C112" si="1">1-B67</f>
-        <v>0.99227284000000004</v>
+        <v>0.99241009999999996</v>
       </c>
       <c r="D67">
         <f>PRODUCT($C$2:C67)</f>
-        <v>0.89962110267578843</v>
+        <v>0.91115732477880995</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1459,15 +1466,15 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>8.4143900000000008E-3</v>
+        <v>8.3615500000000006E-3</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
-        <v>0.99158561000000001</v>
+        <v>0.99163844999999995</v>
       </c>
       <c r="D68">
         <f>PRODUCT($C$2:C68)</f>
-        <v>0.89205133986564433</v>
+        <v>0.90353863724980565</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1475,15 +1482,15 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>9.1876300000000004E-3</v>
+        <v>9.2035299999999997E-3</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
-        <v>0.99081237</v>
+        <v>0.99079647000000004</v>
       </c>
       <c r="D69">
         <f>PRODUCT($C$2:C69)</f>
-        <v>0.88385550221395459</v>
+        <v>0.89522289229571794</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1491,15 +1498,15 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.003686E-2</v>
+        <v>1.0122610000000001E-2</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
-        <v>0.98996313999999996</v>
+        <v>0.98987738999999997</v>
       </c>
       <c r="D70">
         <f>PRODUCT($C$2:C70)</f>
-        <v>0.87498436827800341</v>
+        <v>0.88616090009393633</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1507,15 +1514,15 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.093274E-2</v>
+        <v>1.1126870000000001E-2</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
-        <v>0.98906726</v>
+        <v>0.98887312999999999</v>
       </c>
       <c r="D71">
         <f>PRODUCT($C$2:C71)</f>
-        <v>0.86541839167555579</v>
+        <v>0.87630070295950813</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1523,15 +1530,15 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.198018E-2</v>
+        <v>1.216685E-2</v>
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
-        <v>0.98801981999999999</v>
+        <v>0.98783315000000005</v>
       </c>
       <c r="D72">
         <f>PRODUCT($C$2:C72)</f>
-        <v>0.85505052356797218</v>
+        <v>0.86563888375170528</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1539,15 +1546,15 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.311877E-2</v>
+        <v>1.337057E-2</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
-        <v>0.98688123000000005</v>
+        <v>0.98662943000000003</v>
       </c>
       <c r="D73">
         <f>PRODUCT($C$2:C73)</f>
-        <v>0.84383331241090442</v>
+        <v>0.85406479846178129</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1555,15 +1562,15 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.44333E-2</v>
+        <v>1.470343E-2</v>
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
-        <v>0.98556670000000002</v>
+        <v>0.98529657000000004</v>
       </c>
       <c r="D74">
         <f>PRODUCT($C$2:C74)</f>
-        <v>0.83165401306288411</v>
+        <v>0.84150711648213439</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1571,15 +1578,15 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.5874989999999999E-2</v>
+        <v>1.6192450000000001E-2</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
-        <v>0.98412500999999997</v>
+        <v>0.98380754999999998</v>
       </c>
       <c r="D75">
         <f>PRODUCT($C$2:C75)</f>
-        <v>0.81845151392205095</v>
+        <v>0.82788105457385319</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1587,15 +1594,15 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.7500399999999999E-2</v>
+        <v>1.7872289999999999E-2</v>
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
-        <v>0.98249960000000003</v>
+        <v>0.98212770999999999</v>
       </c>
       <c r="D76">
         <f>PRODUCT($C$2:C76)</f>
-        <v>0.80412828504780953</v>
+        <v>0.81308492428100343</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1603,15 +1610,15 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.9307580000000001E-2</v>
+        <v>1.993901E-2</v>
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
-        <v>0.98069242000000001</v>
+        <v>0.98006099000000002</v>
       </c>
       <c r="D77">
         <f>PRODUCT($C$2:C77)</f>
-        <v>0.78860251385398616</v>
+        <v>0.79687281584491532</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1619,15 +1626,15 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>2.132448E-2</v>
+        <v>2.214868E-2</v>
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
-        <v>0.97867552000000002</v>
+        <v>0.97785131999999997</v>
       </c>
       <c r="D78">
         <f>PRODUCT($C$2:C78)</f>
-        <v>0.77178597531935711</v>
+        <v>0.77922313484606731</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1635,15 +1642,15 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2.3489989999999999E-2</v>
+        <v>2.4691479999999998E-2</v>
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
-        <v>0.97651001000000004</v>
+        <v>0.97530852000000001</v>
       </c>
       <c r="D79">
         <f>PRODUCT($C$2:C79)</f>
-        <v>0.75365673047696524</v>
+        <v>0.75998296239647833</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1651,15 +1658,15 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2.599483E-2</v>
+        <v>2.7618509999999999E-2</v>
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
-        <v>0.97400516999999998</v>
+        <v>0.97238148999999996</v>
       </c>
       <c r="D80">
         <f>PRODUCT($C$2:C80)</f>
-        <v>0.73406555188986067</v>
+        <v>0.7389933653497015</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1667,15 +1674,15 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>2.8824160000000001E-2</v>
+        <v>3.0978180000000001E-2</v>
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
-        <v>0.97117584000000001</v>
+        <v>0.96902182000000003</v>
       </c>
       <c r="D81">
         <f>PRODUCT($C$2:C81)</f>
-        <v>0.71290672897169904</v>
+        <v>0.71610069585909275</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1683,15 +1690,15 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3.1839340000000001E-2</v>
+        <v>3.5399949999999999E-2</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
-        <v>0.96816066000000001</v>
+        <v>0.96460005000000004</v>
       </c>
       <c r="D82">
         <f>PRODUCT($C$2:C82)</f>
-        <v>0.69020824923968127</v>
+        <v>0.6907507670307157</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1699,15 +1706,15 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>3.5451299999999998E-2</v>
+        <v>3.9819769999999997E-2</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
-        <v>0.96454870000000004</v>
+        <v>0.96018022999999997</v>
       </c>
       <c r="D83">
         <f>PRODUCT($C$2:C83)</f>
-        <v>0.66573946953341057</v>
+        <v>0.66324523036022898</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1715,15 +1722,15 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>3.927982E-2</v>
+        <v>4.4786279999999998E-2</v>
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
-        <v>0.96072018000000003</v>
+        <v>0.95521372000000004</v>
       </c>
       <c r="D84">
         <f>PRODUCT($C$2:C84)</f>
-        <v>0.63958934300324277</v>
+        <v>0.63354094376465131</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -1731,15 +1738,15 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4.3613819999999998E-2</v>
+        <v>5.0315890000000002E-2</v>
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
-        <v>0.95638617999999997</v>
+        <v>0.94968410999999997</v>
       </c>
       <c r="D85">
         <f>PRODUCT($C$2:C85)</f>
-        <v>0.61169440852358103</v>
+        <v>0.60166376732769289</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1747,15 +1754,15 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4.8360960000000001E-2</v>
+        <v>5.6413810000000002E-2</v>
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
-        <v>0.95163903999999999</v>
+        <v>0.94358618999999999</v>
       </c>
       <c r="D86">
         <f>PRODUCT($C$2:C86)</f>
-        <v>0.58211227970074841</v>
+        <v>0.56772162187378417</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1763,15 +1770,15 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5.3616219999999999E-2</v>
+        <v>6.4105560000000006E-2</v>
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
-        <v>0.94638378000000001</v>
+        <v>0.93589443999999999</v>
       </c>
       <c r="D87">
         <f>PRODUCT($C$2:C87)</f>
-        <v>0.55090161964761153</v>
+        <v>0.53132750937945694</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1779,15 +1786,15 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5.9370859999999998E-2</v>
+        <v>7.1426900000000002E-2</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
-        <v>0.94062913999999997</v>
+        <v>0.92857310000000004</v>
       </c>
       <c r="D88">
         <f>PRODUCT($C$2:C88)</f>
-        <v>0.51819411671373994</v>
+        <v>0.49337643249976143</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -1795,15 +1802,15 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6.5807660000000004E-2</v>
+        <v>7.9270789999999994E-2</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
-        <v>0.93419233999999995</v>
+        <v>0.92072920999999996</v>
       </c>
       <c r="D89">
         <f>PRODUCT($C$2:C89)</f>
-        <v>0.4840929744670418</v>
+        <v>0.45426609292812364</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -1811,15 +1818,15 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7.2790400000000005E-2</v>
+        <v>8.7596229999999997E-2</v>
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
-        <v>0.92720959999999997</v>
+        <v>0.91240377000000006</v>
       </c>
       <c r="D90">
         <f>PRODUCT($C$2:C90)</f>
-        <v>0.44885565321839604</v>
+        <v>0.41447409577079036</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -1827,15 +1834,15 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>8.035262E-2</v>
+        <v>9.6352170000000001E-2</v>
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
-        <v>0.91964738000000001</v>
+        <v>0.90364783000000004</v>
       </c>
       <c r="D91">
         <f>PRODUCT($C$2:C91)</f>
-        <v>0.41278892548048651</v>
+        <v>0.37453861723448689</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -1843,15 +1850,15 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>8.803917E-2</v>
+        <v>0.10719734</v>
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
-        <v>0.91196082999999994</v>
+        <v>0.89280265999999997</v>
       </c>
       <c r="D92">
         <f>PRODUCT($C$2:C92)</f>
-        <v>0.3764473310959926</v>
+        <v>0.33438907373967175</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -1859,15 +1866,15 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>9.6986939999999994E-2</v>
+        <v>0.11678025</v>
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
-        <v>0.90301306000000003</v>
+        <v>0.88321974999999997</v>
       </c>
       <c r="D93">
         <f>PRODUCT($C$2:C93)</f>
-        <v>0.33993685638182547</v>
+        <v>0.29533903411108442</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -1875,15 +1882,15 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.10655183</v>
+        <v>0.12659571</v>
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
-        <v>0.89344816999999999</v>
+        <v>0.87340428999999997</v>
       </c>
       <c r="D94">
         <f>PRODUCT($C$2:C94)</f>
-        <v>0.30371596224989478</v>
+        <v>0.25795037939707743</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -1891,15 +1898,15 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.11704276</v>
+        <v>0.13656357999999999</v>
       </c>
       <c r="C95">
         <f t="shared" si="1"/>
-        <v>0.88295723999999998</v>
+        <v>0.86343641999999998</v>
       </c>
       <c r="D95">
         <f>PRODUCT($C$2:C95)</f>
-        <v>0.26816820777211126</v>
+        <v>0.2227237521242543</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -1907,15 +1914,15 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.12834066999999999</v>
+        <v>0.14660022</v>
       </c>
       <c r="C96">
         <f t="shared" si="1"/>
-        <v>0.87165932999999995</v>
+        <v>0.85339977999999994</v>
       </c>
       <c r="D96">
         <f>PRODUCT($C$2:C96)</f>
-        <v>0.23375132031393928</v>
+        <v>0.19007240106361314</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -1923,15 +1930,15 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.14046937000000001</v>
+        <v>0.15965745000000001</v>
       </c>
       <c r="C97">
         <f t="shared" si="1"/>
-        <v>0.85953062999999996</v>
+        <v>0.84034255000000002</v>
       </c>
       <c r="D97">
         <f>PRODUCT($C$2:C97)</f>
-        <v>0.20091641961277201</v>
+        <v>0.15972592619441939</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -1939,15 +1946,15 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.15344937</v>
+        <v>0.17222797000000001</v>
       </c>
       <c r="C98">
         <f t="shared" si="1"/>
-        <v>0.84655062999999997</v>
+        <v>0.82777202999999999</v>
       </c>
       <c r="D98">
         <f>PRODUCT($C$2:C98)</f>
-        <v>0.17008592160053651</v>
+        <v>0.1322166541695847</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -1955,15 +1962,15 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.16729823999999999</v>
+        <v>0.18763356</v>
       </c>
       <c r="C99">
         <f t="shared" si="1"/>
-        <v>0.83270175999999996</v>
+        <v>0.81236644000000002</v>
       </c>
       <c r="D99">
         <f>PRODUCT($C$2:C99)</f>
-        <v>0.14163084626798877</v>
+        <v>0.10740837265645668</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -1971,15 +1978,15 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.18203079</v>
+        <v>0.20690048999999999</v>
       </c>
       <c r="C100">
         <f t="shared" si="1"/>
-        <v>0.81796921</v>
+        <v>0.79309951000000001</v>
       </c>
       <c r="D100">
         <f>PRODUCT($C$2:C100)</f>
-        <v>0.11584967143345823</v>
+        <v>8.5185527723733195E-2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -1987,15 +1994,15 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.19765917</v>
+        <v>0.22456540999999999</v>
       </c>
       <c r="C101">
         <f t="shared" si="1"/>
-        <v>0.80234083</v>
+        <v>0.77543459000000003</v>
       </c>
       <c r="D101">
         <f>PRODUCT($C$2:C101)</f>
-        <v>9.295092153314817E-2</v>
+        <v>6.6055804764386689E-2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2003,15 +2010,15 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.21419326</v>
+        <v>0.24742438999999999</v>
       </c>
       <c r="C102">
         <f t="shared" si="1"/>
-        <v>0.78580673999999995</v>
+        <v>0.75257561000000006</v>
       </c>
       <c r="D102">
         <f>PRODUCT($C$2:C102)</f>
-        <v>7.3041460629958962E-2</v>
+        <v>4.9711987564599221E-2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2019,15 +2026,15 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.23164102</v>
+        <v>0.2679763</v>
       </c>
       <c r="C103">
         <f t="shared" si="1"/>
-        <v>0.76835898000000002</v>
+        <v>0.73202370000000005</v>
       </c>
       <c r="D103">
         <f>PRODUCT($C$2:C103)</f>
-        <v>5.6122062187345424E-2</v>
+        <v>3.6390353071391913E-2</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2035,15 +2042,15 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.25000871000000002</v>
+        <v>0.28988479</v>
       </c>
       <c r="C104">
         <f t="shared" si="1"/>
-        <v>0.74999128999999998</v>
+        <v>0.71011521</v>
       </c>
       <c r="D104">
         <f>PRODUCT($C$2:C104)</f>
-        <v>4.2091057817347413E-2</v>
+        <v>2.5841343213265613E-2</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2051,15 +2058,15 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.26930102</v>
+        <v>0.31317346000000001</v>
       </c>
       <c r="C105">
         <f t="shared" si="1"/>
-        <v>0.73069898</v>
+        <v>0.68682653999999999</v>
       </c>
       <c r="D105">
         <f>PRODUCT($C$2:C105)</f>
-        <v>3.0755893014256783E-2</v>
+        <v>1.7748520348119703E-2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2067,15 +2074,15 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.28952215999999997</v>
+        <v>0.3378526</v>
       </c>
       <c r="C106">
         <f t="shared" si="1"/>
-        <v>0.71047784000000003</v>
+        <v>0.66214740000000005</v>
       </c>
       <c r="D106">
         <f>PRODUCT($C$2:C106)</f>
-        <v>2.1851380436040249E-2</v>
+        <v>1.1752136602354557E-2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2083,15 +2090,15 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.31067529999999999</v>
+        <v>0.36391633000000001</v>
       </c>
       <c r="C107">
         <f t="shared" si="1"/>
-        <v>0.68932470000000001</v>
+        <v>0.63608366999999999</v>
       </c>
       <c r="D107">
         <f>PRODUCT($C$2:C107)</f>
-        <v>1.5062696263659314E-2</v>
+        <v>7.4753421803670167E-3</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2099,15 +2106,15 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.33276325000000001</v>
+        <v>0.39133970000000001</v>
       </c>
       <c r="C108">
         <f t="shared" si="1"/>
-        <v>0.66723675000000005</v>
+        <v>0.60866029999999993</v>
       </c>
       <c r="D108">
         <f>PRODUCT($C$2:C108)</f>
-        <v>1.0050384501201184E-2</v>
+        <v>4.5499440141048416E-3</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2115,15 +2122,15 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.35543338000000002</v>
+        <v>0.42007559</v>
       </c>
       <c r="C109">
         <f t="shared" si="1"/>
-        <v>0.64456661999999998</v>
+        <v>0.57992441000000006</v>
       </c>
       <c r="D109">
         <f>PRODUCT($C$2:C109)</f>
-        <v>6.4781423676396324E-3</v>
+        <v>2.6386235979127823E-3</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2131,15 +2138,15 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.37899671000000001</v>
+        <v>0.45005167000000001</v>
       </c>
       <c r="C110">
         <f t="shared" si="1"/>
-        <v>0.62100328999999999</v>
+        <v>0.54994832999999999</v>
       </c>
       <c r="D110">
         <f>PRODUCT($C$2:C110)</f>
-        <v>4.0229477233926008E-3</v>
+        <v>1.4511066411707261E-3</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2147,15 +2154,15 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.40345312999999999</v>
+        <v>0.48116748999999998</v>
       </c>
       <c r="C111">
         <f t="shared" si="1"/>
-        <v>0.59654687000000006</v>
+        <v>0.51883250999999997</v>
       </c>
       <c r="D111">
         <f>PRODUCT($C$2:C111)</f>
-        <v>2.399876872563482E-3</v>
+        <v>7.5288130091627709E-4</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2183,14 +2190,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D95310B-63B2-4A0F-A157-1EAD4286D448}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D112"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2204,899 +2211,899 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.0847499999999999E-3</v>
+        <v>5.2721499999999998E-3</v>
       </c>
       <c r="C2">
         <f>1-B2</f>
-        <v>0.99191525000000003</v>
+        <v>0.99472784999999997</v>
       </c>
       <c r="D2">
         <f>PRODUCT($C$2:C2)</f>
-        <v>0.99191525000000003</v>
+        <v>0.99472784999999997</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.5334999999999996E-4</v>
+        <v>2.6525000000000002E-4</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="0">1-B3</f>
-        <v>0.99924665000000001</v>
+        <v>0.99973475000000001</v>
       </c>
       <c r="D3">
         <f>PRODUCT($C$2:C3)</f>
-        <v>0.99116799064641259</v>
+        <v>0.99446399843778743</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.2261000000000002E-4</v>
+        <v>2.2359999999999999E-4</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.99957739000000001</v>
+        <v>0.99977640000000001</v>
       </c>
       <c r="D4">
         <f>PRODUCT($C$2:C4)</f>
-        <v>0.99074911314188552</v>
+        <v>0.99424163628773676</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.0318000000000001E-4</v>
+        <v>1.9462E-4</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.99969682000000004</v>
+        <v>0.99980537999999997</v>
       </c>
       <c r="D5">
         <f>PRODUCT($C$2:C5)</f>
-        <v>0.99044873782576315</v>
+        <v>0.99404813698048244</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.4804999999999998E-4</v>
+        <v>1.4259E-4</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.99975194999999994</v>
+        <v>0.99985740999999995</v>
       </c>
       <c r="D6">
         <f>PRODUCT($C$2:C6)</f>
-        <v>0.99020305701634537</v>
+        <v>0.9939063956566303</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.2049E-4</v>
+        <v>1.1414E-4</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.99977950999999998</v>
+        <v>0.99988586000000002</v>
       </c>
       <c r="D7">
         <f>PRODUCT($C$2:C7)</f>
-        <v>0.98998472714430386</v>
+        <v>0.99379295118063005</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.0212E-4</v>
+        <v>1.0688000000000001E-4</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.99979788000000003</v>
+        <v>0.99989311999999997</v>
       </c>
       <c r="D8">
         <f>PRODUCT($C$2:C8)</f>
-        <v>0.9897846314312535</v>
+        <v>0.99368673459000778</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.8374E-4</v>
+        <v>1.0098E-4</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.99981626000000001</v>
+        <v>0.99989901999999997</v>
       </c>
       <c r="D9">
         <f>PRODUCT($C$2:C9)</f>
-        <v>0.98960276840307437</v>
+        <v>0.99358639210354882</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.8374E-4</v>
+        <v>9.3770000000000005E-5</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.99981626000000001</v>
+        <v>0.99990623000000001</v>
       </c>
       <c r="D10">
         <f>PRODUCT($C$2:C10)</f>
-        <v>0.98942093879040804</v>
+        <v>0.99349322350756131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.8374E-4</v>
+        <v>8.5799999999999998E-5</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.99981626000000001</v>
+        <v>0.99991419999999998</v>
       </c>
       <c r="D11">
         <f>PRODUCT($C$2:C11)</f>
-        <v>0.98923914258711476</v>
+        <v>0.99340798178898437</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.9293000000000001E-4</v>
+        <v>8.242E-5</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.99980707000000002</v>
+        <v>0.99991757999999997</v>
       </c>
       <c r="D12">
         <f>PRODUCT($C$2:C12)</f>
-        <v>0.98904828867933547</v>
+        <v>0.99332610510312525</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.1131000000000001E-4</v>
+        <v>8.7780000000000003E-5</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.99978869000000004</v>
+        <v>0.99991222000000002</v>
       </c>
       <c r="D13">
         <f>PRODUCT($C$2:C13)</f>
-        <v>0.98883929288545469</v>
+        <v>0.99323891093761929</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.3886999999999999E-4</v>
+        <v>1.1181E-4</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.99976113</v>
+        <v>0.99988818999999995</v>
       </c>
       <c r="D14">
         <f>PRODUCT($C$2:C14)</f>
-        <v>0.98860308884356318</v>
+        <v>0.99312785689498728</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.8479999999999998E-4</v>
+        <v>1.5941999999999999E-4</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.99971520000000003</v>
+        <v>0.99984057999999998</v>
       </c>
       <c r="D15">
         <f>PRODUCT($C$2:C15)</f>
-        <v>0.98832153468386053</v>
+        <v>0.99296953245204111</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.4911000000000002E-4</v>
+        <v>2.2468E-4</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.99965088999999996</v>
+        <v>0.99977532000000002</v>
       </c>
       <c r="D16">
         <f>PRODUCT($C$2:C16)</f>
-        <v>0.98797650175288698</v>
+        <v>0.9927464320574898</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.3179999999999998E-4</v>
+        <v>3.2341999999999999E-4</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.99956820000000002</v>
+        <v>0.99967658000000004</v>
       </c>
       <c r="D17">
         <f>PRODUCT($C$2:C17)</f>
-        <v>0.98754989349943012</v>
+        <v>0.99242535800643383</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.2366999999999995E-4</v>
+        <v>3.9999000000000002E-4</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.99947633000000002</v>
+        <v>0.99960000999999998</v>
       </c>
       <c r="D18">
         <f>PRODUCT($C$2:C18)</f>
-        <v>0.98703274324670132</v>
+        <v>0.99202839778748486</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.3391999999999995E-4</v>
+        <v>4.7245000000000002E-4</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0.99936608000000005</v>
+        <v>0.99952755000000004</v>
       </c>
       <c r="D19">
         <f>PRODUCT($C$2:C19)</f>
-        <v>0.98640704345010244</v>
+        <v>0.99155971397095022</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.8333000000000005E-4</v>
+        <v>5.3602000000000001E-4</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0.99921667000000003</v>
+        <v>0.99946398000000003</v>
       </c>
       <c r="D20">
         <f>PRODUCT($C$2:C20)</f>
-        <v>0.98563436122075665</v>
+        <v>0.99102821813306752</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.9937999999999997E-4</v>
+        <v>5.9157999999999997E-4</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0.99910061999999999</v>
+        <v>0.99940841999999996</v>
       </c>
       <c r="D21">
         <f>PRODUCT($C$2:C21)</f>
-        <v>0.98474790138896195</v>
+        <v>0.99044194565978427</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.0057600000000001E-3</v>
+        <v>6.3809999999999995E-4</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0.99899424000000003</v>
+        <v>0.99936190000000003</v>
       </c>
       <c r="D22">
         <f>PRODUCT($C$2:C22)</f>
-        <v>0.98375748133966101</v>
+        <v>0.98980994465425876</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.11214E-3</v>
+        <v>6.9289000000000004E-4</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0.99888785999999996</v>
+        <v>0.99930711000000005</v>
       </c>
       <c r="D23">
         <f>PRODUCT($C$2:C23)</f>
-        <v>0.98266340529436391</v>
+        <v>0.98912411524170729</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.1895E-3</v>
+        <v>7.3413000000000005E-4</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0.99881050000000005</v>
+        <v>0.99926587</v>
       </c>
       <c r="D24">
         <f>PRODUCT($C$2:C24)</f>
-        <v>0.98149452717376628</v>
+        <v>0.98839796955498493</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.2572E-3</v>
+        <v>7.5783000000000003E-4</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0.99874280000000004</v>
+        <v>0.99924217000000004</v>
       </c>
       <c r="D25">
         <f>PRODUCT($C$2:C25)</f>
-        <v>0.98026059225420348</v>
+        <v>0.9876489319217171</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.31522E-3</v>
+        <v>7.6864000000000001E-4</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0.99868478000000005</v>
+        <v>0.99923136000000001</v>
       </c>
       <c r="D26">
         <f>PRODUCT($C$2:C26)</f>
-        <v>0.97897133391805891</v>
+        <v>0.98688978544668482</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.3583200000000001E-3</v>
+        <v>7.6599999999999997E-4</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0.99864167999999998</v>
+        <v>0.99923399999999996</v>
       </c>
       <c r="D27">
         <f>PRODUCT($C$2:C27)</f>
-        <v>0.9776415775757713</v>
+        <v>0.98613382787103265</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.37772E-3</v>
+        <v>7.7479000000000003E-4</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0.99862227999999997</v>
+        <v>0.99922520999999997</v>
       </c>
       <c r="D28">
         <f>PRODUCT($C$2:C28)</f>
-        <v>0.97629466122151354</v>
+        <v>0.98536978124253638</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.40683E-3</v>
+        <v>7.8607000000000004E-4</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0.99859317000000003</v>
+        <v>0.99921393000000003</v>
       </c>
       <c r="D29">
         <f>PRODUCT($C$2:C29)</f>
-        <v>0.97492118060326727</v>
+        <v>0.98459521161859509</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.41653E-3</v>
+        <v>8.0265000000000002E-4</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0.99858347000000003</v>
+        <v>0.99919734999999998</v>
       </c>
       <c r="D30">
         <f>PRODUCT($C$2:C30)</f>
-        <v>0.9735401755033074</v>
+        <v>0.98380492627198945</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.43593E-3</v>
+        <v>8.2432999999999996E-4</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>0.99856407000000003</v>
+        <v>0.99917566999999996</v>
       </c>
       <c r="D31">
         <f>PRODUCT($C$2:C31)</f>
-        <v>0.97214223995909699</v>
+        <v>0.98299394635711568</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.4497500000000001E-3</v>
+        <v>8.4033999999999997E-4</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>0.99855024999999997</v>
+        <v>0.99915966000000001</v>
       </c>
       <c r="D32">
         <f>PRODUCT($C$2:C32)</f>
-        <v>0.97073287674671627</v>
+        <v>0.98216789722423392</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.4692100000000001E-3</v>
+        <v>8.6514999999999997E-4</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>0.99853079</v>
+        <v>0.99913485000000002</v>
       </c>
       <c r="D33">
         <f>PRODUCT($C$2:C33)</f>
-        <v>0.96930666629687123</v>
+        <v>0.98131817466795035</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.4984E-3</v>
+        <v>8.9755E-4</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>0.99850159999999999</v>
+        <v>0.99910244999999998</v>
       </c>
       <c r="D34">
         <f>PRODUCT($C$2:C34)</f>
-        <v>0.96785425718809204</v>
+        <v>0.98043739254027706</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.53732E-3</v>
+        <v>9.3946999999999998E-4</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>0.99846268000000005</v>
+        <v>0.99906052999999995</v>
       </c>
       <c r="D35">
         <f>PRODUCT($C$2:C35)</f>
-        <v>0.96636635548143168</v>
+        <v>0.97951630102310716</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.5859699999999999E-3</v>
+        <v>9.896900000000001E-4</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>0.99841402999999995</v>
+        <v>0.99901030999999996</v>
       </c>
       <c r="D36">
         <f>PRODUCT($C$2:C36)</f>
-        <v>0.96483372743262874</v>
+        <v>0.97854688353514752</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.6500200000000001E-3</v>
+        <v>1.0425300000000001E-3</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>0.99834997999999997</v>
+        <v>0.99895747000000001</v>
       </c>
       <c r="D37">
         <f>PRODUCT($C$2:C37)</f>
-        <v>0.96324173248569034</v>
+        <v>0.97752671905265565</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.7183599999999999E-3</v>
+        <v>1.10494E-3</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>0.99828163999999997</v>
+        <v>0.99889505999999995</v>
       </c>
       <c r="D38">
         <f>PRODUCT($C$2:C38)</f>
-        <v>0.96158653642225622</v>
+        <v>0.97644661067970551</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.80623E-3</v>
+        <v>1.16753E-3</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>0.99819376999999998</v>
+        <v>0.99883246999999997</v>
       </c>
       <c r="D39">
         <f>PRODUCT($C$2:C39)</f>
-        <v>0.95984968997257425</v>
+        <v>0.97530657996833858</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.9136299999999999E-3</v>
+        <v>1.22813E-3</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>0.99808637</v>
+        <v>0.99877187000000001</v>
       </c>
       <c r="D40">
         <f>PRODUCT($C$2:C40)</f>
-        <v>0.95801289281035207</v>
+        <v>0.97410877669828211</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2.0307900000000002E-3</v>
+        <v>1.29039E-3</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>0.99796921000000005</v>
+        <v>0.99870961000000003</v>
       </c>
       <c r="D41">
         <f>PRODUCT($C$2:C41)</f>
-        <v>0.95606736980776175</v>
+        <v>0.9728517964739184</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.1820899999999998E-3</v>
+        <v>1.34303E-3</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>0.99781790999999997</v>
+        <v>0.99865696999999998</v>
       </c>
       <c r="D42">
         <f>PRODUCT($C$2:C42)</f>
-        <v>0.95398114476077789</v>
+        <v>0.97154522732570003</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.2911099999999998E-3</v>
+        <v>1.4228999999999999E-3</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>0.99770888999999996</v>
+        <v>0.9985771</v>
       </c>
       <c r="D43">
         <f>PRODUCT($C$2:C43)</f>
-        <v>0.95179546902020495</v>
+        <v>0.97016281562173834</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.4225700000000002E-3</v>
+        <v>1.5194799999999999E-3</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>0.99757742999999999</v>
+        <v>0.99848051999999998</v>
       </c>
       <c r="D44">
         <f>PRODUCT($C$2:C44)</f>
-        <v>0.94948967787082061</v>
+        <v>0.96868867262665737</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.56157E-3</v>
+        <v>1.6365799999999999E-3</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>0.99743842999999999</v>
+        <v>0.99836342</v>
       </c>
       <c r="D45">
         <f>PRODUCT($C$2:C45)</f>
-        <v>0.94705749359667701</v>
+        <v>0.96710333611881005</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.7085500000000001E-3</v>
+        <v>1.77235E-3</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>0.99729144999999997</v>
+        <v>0.99822765000000002</v>
       </c>
       <c r="D46">
         <f>PRODUCT($C$2:C46)</f>
-        <v>0.94449234102239565</v>
+        <v>0.96538929052103994</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.8697599999999998E-3</v>
+        <v>1.91307E-3</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>0.99713023999999995</v>
+        <v>0.99808693000000004</v>
       </c>
       <c r="D47">
         <f>PRODUCT($C$2:C47)</f>
-        <v>0.94178187468182317</v>
+        <v>0.96354243323102284</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3.0344199999999999E-3</v>
+        <v>2.0771700000000001E-3</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>0.99696558000000002</v>
+        <v>0.99792283000000004</v>
       </c>
       <c r="D48">
         <f>PRODUCT($C$2:C48)</f>
-        <v>0.93892411292565114</v>
+        <v>0.96154099179498842</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3.2085299999999998E-3</v>
+        <v>2.24793E-3</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>0.99679147000000001</v>
+        <v>0.99775206999999999</v>
       </c>
       <c r="D49">
         <f>PRODUCT($C$2:C49)</f>
-        <v>0.93591154674160582</v>
+        <v>0.95937951495330265</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.3926400000000002E-3</v>
+        <v>2.4225000000000002E-3</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>0.99660736000000005</v>
+        <v>0.99757750000000001</v>
       </c>
       <c r="D50">
         <f>PRODUCT($C$2:C50)</f>
-        <v>0.93273633579166837</v>
+        <v>0.95705541807832828</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.5872999999999999E-3</v>
+        <v>2.6064999999999999E-3</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>0.99641270000000004</v>
+        <v>0.99739350000000004</v>
       </c>
       <c r="D51">
         <f>PRODUCT($C$2:C51)</f>
-        <v>0.92939033073428301</v>
+        <v>0.95456085313110717</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.7969700000000002E-3</v>
+        <v>2.8304900000000002E-3</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>0.99620302999999999</v>
+        <v>0.99716950999999998</v>
       </c>
       <c r="D52">
         <f>PRODUCT($C$2:C52)</f>
-        <v>0.92586146353019483</v>
+        <v>0.95185897818192811</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="A53" s="3">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4.0418199999999998E-3</v>
+        <v>3.06631E-3</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>0.99595818000000003</v>
+        <v>0.99693368999999998</v>
       </c>
       <c r="D53">
         <f>PRODUCT($C$2:C53)</f>
-        <v>0.9221192981496692</v>
+        <v>0.94894028347853909</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+      <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4.3046300000000003E-3</v>
+        <v>3.2198999999999999E-3</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>0.99569536999999997</v>
+        <v>0.99678009999999995</v>
       </c>
       <c r="D54">
         <f>PRODUCT($C$2:C54)</f>
-        <v>0.91814991575527516</v>
+        <v>0.94588479065976649</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+      <c r="A55" s="3">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.61752E-3</v>
+        <v>3.4966900000000002E-3</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>0.99538247999999996</v>
+        <v>0.99650331000000003</v>
       </c>
       <c r="D55">
         <f>PRODUCT($C$2:C55)</f>
-        <v>0.91391034015627681</v>
+        <v>0.94257732477111444</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>4.9850299999999997E-3</v>
+        <v>3.8646499999999999E-3</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>0.99501497000000005</v>
+        <v>0.99613534999999997</v>
       </c>
       <c r="D56">
         <f>PRODUCT($C$2:C56)</f>
-        <v>0.90935446969328759</v>
+        <v>0.93893459331293772</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.40253E-3</v>
+        <v>4.3242300000000001E-3</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>0.99459746999999998</v>
+        <v>0.99567576999999996</v>
       </c>
       <c r="D57">
         <f>PRODUCT($C$2:C57)</f>
-        <v>0.9044416548901355</v>
+        <v>0.93487442417649602</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3104,15 +3111,15 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.8967799999999999E-3</v>
+        <v>4.8020600000000004E-3</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>0.99410321999999995</v>
+        <v>0.99519793999999995</v>
       </c>
       <c r="D58">
         <f>PRODUCT($C$2:C58)</f>
-        <v>0.89910836142841244</v>
+        <v>0.93038510109913497</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3120,15 +3127,15 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6.4611599999999996E-3</v>
+        <v>5.3101499999999996E-3</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>0.99353884000000003</v>
+        <v>0.99468984999999999</v>
       </c>
       <c r="D59">
         <f>PRODUCT($C$2:C59)</f>
-        <v>0.8932990784478857</v>
+        <v>0.92544461665453337</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -3136,15 +3143,15 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7.0955599999999999E-3</v>
+        <v>5.8604299999999998E-3</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>0.99290444</v>
+        <v>0.99413956999999997</v>
       </c>
       <c r="D60">
         <f>PRODUCT($C$2:C60)</f>
-        <v>0.88696062123881403</v>
+        <v>0.92002111325975267</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -3152,15 +3159,15 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7.7982299999999997E-3</v>
+        <v>6.45862E-3</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>0.99220176999999998</v>
+        <v>0.99354138000000003</v>
       </c>
       <c r="D61">
         <f>PRODUCT($C$2:C61)</f>
-        <v>0.88004389831345087</v>
+        <v>0.91407904649723104</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -3168,15 +3175,15 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>8.5869599999999994E-3</v>
+        <v>7.2570200000000003E-3</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>0.99141303999999997</v>
+        <v>0.99274298000000005</v>
       </c>
       <c r="D62">
         <f>PRODUCT($C$2:C62)</f>
-        <v>0.87248699656038919</v>
+        <v>0.90744555657521975</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -3184,15 +3191,15 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>9.4342599999999999E-3</v>
+        <v>7.9435100000000008E-3</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>0.99056573999999997</v>
+        <v>0.99205648999999996</v>
       </c>
       <c r="D63">
         <f>PRODUCT($C$2:C63)</f>
-        <v>0.86425572738821932</v>
+        <v>0.90023725372210883</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -3200,15 +3207,15 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.036756E-2</v>
+        <v>8.6475600000000003E-3</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>0.98963243999999995</v>
+        <v>0.99135244</v>
       </c>
       <c r="D64">
         <f>PRODUCT($C$2:C64)</f>
-        <v>0.85529550427917822</v>
+        <v>0.89245239805631171</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3216,15 +3223,15 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.140333E-2</v>
+        <v>9.3807700000000001E-3</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>0.98859666999999996</v>
+        <v>0.99061922999999996</v>
       </c>
       <c r="D65">
         <f>PRODUCT($C$2:C65)</f>
-        <v>0.84554228739636628</v>
+        <v>0.88408050737419697</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3232,15 +3239,15 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.255908E-2</v>
+        <v>1.019303E-2</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>0.98744092000000006</v>
+        <v>0.98980696999999995</v>
       </c>
       <c r="D66">
         <f>PRODUCT($C$2:C66)</f>
-        <v>0.83492305416557233</v>
+        <v>0.87506904824011655</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3248,15 +3255,15 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.3993800000000001E-2</v>
+        <v>1.1325709999999999E-2</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C112" si="1">1-B67</f>
-        <v>0.98600620000000005</v>
+        <v>0.98867428999999996</v>
       </c>
       <c r="D67">
         <f>PRODUCT($C$2:C67)</f>
-        <v>0.82323930793019018</v>
+        <v>0.86515826996977296</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3264,15 +3271,15 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.548717E-2</v>
+        <v>1.2511700000000001E-2</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
-        <v>0.98451283000000001</v>
+        <v>0.98748829999999999</v>
       </c>
       <c r="D68">
         <f>PRODUCT($C$2:C68)</f>
-        <v>0.81048966081759299</v>
+        <v>0.85433366924339216</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3280,15 +3287,15 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.708726E-2</v>
+        <v>1.392091E-2</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
-        <v>0.98291273999999995</v>
+        <v>0.98607909000000005</v>
       </c>
       <c r="D69">
         <f>PRODUCT($C$2:C69)</f>
-        <v>0.79664061325589097</v>
+        <v>0.84244056712388515</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3296,15 +3303,15 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.8822330000000002E-2</v>
+        <v>1.55292E-2</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
-        <v>0.98117767</v>
+        <v>0.98447079999999998</v>
       </c>
       <c r="D70">
         <f>PRODUCT($C$2:C70)</f>
-        <v>0.78164598074178626</v>
+        <v>0.82935813906890488</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3312,15 +3319,15 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.069439E-2</v>
+        <v>1.730257E-2</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
-        <v>0.97930561000000005</v>
+        <v>0.98269742999999998</v>
       </c>
       <c r="D71">
         <f>PRODUCT($C$2:C71)</f>
-        <v>0.76547029397438326</v>
+        <v>0.81500811181259536</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3328,15 +3335,15 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2.2715030000000001E-2</v>
+        <v>1.9262060000000001E-2</v>
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
-        <v>0.97728497000000003</v>
+        <v>0.98073794000000003</v>
       </c>
       <c r="D72">
         <f>PRODUCT($C$2:C72)</f>
-        <v>0.74808261328264636</v>
+        <v>0.79930937666237445</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -3344,15 +3351,15 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2.490129E-2</v>
+        <v>2.1377670000000001E-2</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
-        <v>0.97509871000000004</v>
+        <v>0.97862232999999998</v>
       </c>
       <c r="D73">
         <f>PRODUCT($C$2:C73)</f>
-        <v>0.72945439118533739</v>
+        <v>0.78222200458018054</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3360,15 +3367,15 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2.7278239999999999E-2</v>
+        <v>2.373374E-2</v>
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
-        <v>0.97272175999999999</v>
+        <v>0.97626626000000005</v>
       </c>
       <c r="D74">
         <f>PRODUCT($C$2:C74)</f>
-        <v>0.70955615923352988</v>
+        <v>0.76365695090119579</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -3376,15 +3383,15 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>2.9854019999999998E-2</v>
+        <v>2.638194E-2</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
-        <v>0.97014597999999996</v>
+        <v>0.97361805999999995</v>
       </c>
       <c r="D75">
         <f>PRODUCT($C$2:C75)</f>
-        <v>0.68837305546464889</v>
+        <v>0.74351019904193749</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -3392,15 +3399,15 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>3.2710379999999997E-2</v>
+        <v>2.9346710000000002E-2</v>
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
-        <v>0.96728961999999996</v>
+        <v>0.97065329</v>
       </c>
       <c r="D76">
         <f>PRODUCT($C$2:C76)</f>
-        <v>0.66585611123863908</v>
+        <v>0.72169062084861146</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -3408,15 +3415,15 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>3.6027730000000001E-2</v>
+        <v>3.3193439999999998E-2</v>
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
-        <v>0.96397226999999996</v>
+        <v>0.96680655999999998</v>
       </c>
       <c r="D77">
         <f>PRODUCT($C$2:C77)</f>
-        <v>0.64186682704408338</v>
+        <v>0.69773522652691033</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3424,15 +3431,15 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3.95702E-2</v>
+        <v>3.6801359999999998E-2</v>
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
-        <v>0.9604298</v>
+        <v>0.96319863999999999</v>
       </c>
       <c r="D78">
         <f>PRODUCT($C$2:C78)</f>
-        <v>0.61646802832458358</v>
+        <v>0.67205762127081192</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -3440,15 +3447,15 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4.3489010000000002E-2</v>
+        <v>4.066463E-2</v>
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
-        <v>0.95651098999999995</v>
+        <v>0.95933537000000002</v>
       </c>
       <c r="D79">
         <f>PRODUCT($C$2:C79)</f>
-        <v>0.58965844407609547</v>
+        <v>0.64472864676315422</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -3456,15 +3463,15 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.7875130000000002E-2</v>
+        <v>4.4792829999999999E-2</v>
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
-        <v>0.95212487000000001</v>
+        <v>0.95520716999999999</v>
       </c>
       <c r="D80">
         <f>PRODUCT($C$2:C80)</f>
-        <v>0.56142846941035462</v>
+        <v>0.61584942609256221</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -3472,15 +3479,15 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.2769410000000003E-2</v>
+        <v>4.923599E-2</v>
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
-        <v>0.94723058999999998</v>
+        <v>0.95076400999999999</v>
       </c>
       <c r="D81">
         <f>PRODUCT($C$2:C81)</f>
-        <v>0.53180222032236713</v>
+        <v>0.58552746990796312</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -3488,15 +3495,15 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5.8222080000000002E-2</v>
+        <v>5.4738120000000001E-2</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
-        <v>0.94177792000000005</v>
+        <v>0.94526188</v>
       </c>
       <c r="D82">
         <f>PRODUCT($C$2:C82)</f>
-        <v>0.50083958890658065</v>
+        <v>0.5534767969968446</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -3504,15 +3511,15 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6.5105839999999998E-2</v>
+        <v>6.0140390000000002E-2</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
-        <v>0.93489416000000003</v>
+        <v>0.93985960999999996</v>
       </c>
       <c r="D83">
         <f>PRODUCT($C$2:C83)</f>
-        <v>0.46823200676556304</v>
+        <v>0.52019048656950351</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -3520,15 +3527,15 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7.2677770000000003E-2</v>
+        <v>6.6148730000000003E-2</v>
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
-        <v>0.92732223000000003</v>
+        <v>0.93385127000000001</v>
       </c>
       <c r="D84">
         <f>PRODUCT($C$2:C84)</f>
-        <v>0.43420194867121703</v>
+        <v>0.48578054652484881</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -3536,15 +3543,15 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8.0853170000000002E-2</v>
+        <v>7.2860289999999994E-2</v>
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
-        <v>0.91914682999999997</v>
+        <v>0.92713971000000006</v>
       </c>
       <c r="D85">
         <f>PRODUCT($C$2:C85)</f>
-        <v>0.39909534470097185</v>
+        <v>0.45038643502868986</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3552,15 +3559,15 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8.9710659999999998E-2</v>
+        <v>8.03619E-2</v>
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
-        <v>0.91028934000000006</v>
+        <v>0.91963810000000001</v>
       </c>
       <c r="D86">
         <f>PRODUCT($C$2:C86)</f>
-        <v>0.36329223792492021</v>
+        <v>0.41419252537555779</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3568,15 +3575,15 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>9.9234039999999996E-2</v>
+        <v>8.9808739999999998E-2</v>
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
-        <v>0.90076595999999998</v>
+        <v>0.91019125999999995</v>
       </c>
       <c r="D87">
         <f>PRODUCT($C$2:C87)</f>
-        <v>0.32724128145498915</v>
+        <v>0.37699441655416088</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -3584,15 +3591,15 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.10942306</v>
+        <v>9.9202559999999995E-2</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
-        <v>0.89057693999999998</v>
+        <v>0.90079744000000006</v>
       </c>
       <c r="D88">
         <f>PRODUCT($C$2:C88)</f>
-        <v>0.29143353907986297</v>
+        <v>0.33959560532628175</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -3600,15 +3607,15 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.12034394</v>
+        <v>0.10955595</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
-        <v>0.87965605999999996</v>
+        <v>0.89044405000000004</v>
       </c>
       <c r="D89">
         <f>PRODUCT($C$2:C89)</f>
-        <v>0.25636127873884829</v>
+        <v>0.30239088616893589</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3616,15 +3623,15 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.13192746999999999</v>
+        <v>0.12087779</v>
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
-        <v>0.86807253000000006</v>
+        <v>0.87912221000000002</v>
       </c>
       <c r="D90">
         <f>PRODUCT($C$2:C90)</f>
-        <v>0.22254018382886726</v>
+        <v>0.26583854413269337</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3632,15 +3639,15 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.14424609999999999</v>
+        <v>0.13315283</v>
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
-        <v>0.85575390000000007</v>
+        <v>0.86684717</v>
       </c>
       <c r="D91">
         <f>PRODUCT($C$2:C91)</f>
-        <v>0.1904396302182701</v>
+        <v>0.23044138965834535</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -3648,15 +3655,15 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.15725813</v>
+        <v>0.14812221</v>
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
-        <v>0.84274187</v>
+        <v>0.85187778999999997</v>
       </c>
       <c r="D92">
         <f>PRODUCT($C$2:C92)</f>
-        <v>0.16049145009225346</v>
+        <v>0.19630790174668009</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3664,15 +3671,15 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.17304863000000001</v>
+        <v>0.16233538</v>
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
-        <v>0.82695136999999996</v>
+        <v>0.83766461999999997</v>
       </c>
       <c r="D93">
         <f>PRODUCT($C$2:C93)</f>
-        <v>0.13271862452707561</v>
+        <v>0.16444018391963011</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3680,15 +3687,15 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.18932568999999999</v>
+        <v>0.17732951999999999</v>
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
-        <v>0.81067431000000001</v>
+        <v>0.82267047999999998</v>
       </c>
       <c r="D94">
         <f>PRODUCT($C$2:C94)</f>
-        <v>0.10759157936263609</v>
+        <v>0.13528008503645039</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -3696,15 +3703,15 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.20542246</v>
+        <v>0.19300355</v>
       </c>
       <c r="C95">
         <f t="shared" si="1"/>
-        <v>0.79457754000000003</v>
+        <v>0.80699644999999998</v>
       </c>
       <c r="D95">
         <f>PRODUCT($C$2:C95)</f>
-        <v>8.5489852454678161E-2</v>
+        <v>0.10917054838011359</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -3712,15 +3719,15 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.22158475999999999</v>
+        <v>0.20924055</v>
       </c>
       <c r="C96">
         <f t="shared" si="1"/>
-        <v>0.77841523999999995</v>
+        <v>0.79075945000000003</v>
       </c>
       <c r="D96">
         <f>PRODUCT($C$2:C96)</f>
-        <v>6.6546604016072888E-2</v>
+        <v>8.6327642793257012E-2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -3728,15 +3735,15 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.23847795999999999</v>
+        <v>0.22835691999999999</v>
       </c>
       <c r="C97">
         <f t="shared" si="1"/>
-        <v>0.76152204000000001</v>
+        <v>0.77164308000000004</v>
       </c>
       <c r="D97">
         <f>PRODUCT($C$2:C97)</f>
-        <v>5.067670564539202E-2</v>
+        <v>6.6614128174128651E-2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3744,15 +3751,15 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.25531205000000001</v>
+        <v>0.24670781</v>
       </c>
       <c r="C98">
         <f t="shared" si="1"/>
-        <v>0.74468794999999999</v>
+        <v>0.75329219000000003</v>
       </c>
       <c r="D98">
         <f>PRODUCT($C$2:C98)</f>
-        <v>3.773833203982041E-2</v>
+        <v>5.0179902497230075E-2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3760,15 +3767,15 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.27150626</v>
+        <v>0.26583059999999997</v>
       </c>
       <c r="C99">
         <f t="shared" si="1"/>
-        <v>0.72849374</v>
+        <v>0.73416940000000008</v>
       </c>
       <c r="D99">
         <f>PRODUCT($C$2:C99)</f>
-        <v>2.7492138649050601E-2</v>
+        <v>3.6840548908449913E-2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3776,15 +3783,15 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.28773358999999998</v>
+        <v>0.28567680000000001</v>
       </c>
       <c r="C100">
         <f t="shared" si="1"/>
-        <v>0.71226641000000002</v>
+        <v>0.71432319999999994</v>
       </c>
       <c r="D100">
         <f>PRODUCT($C$2:C100)</f>
-        <v>1.9581726898781522E-2</v>
+        <v>2.6316058786040448E-2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -3792,15 +3799,15 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.30435823000000001</v>
+        <v>0.30618872000000003</v>
       </c>
       <c r="C101">
         <f t="shared" si="1"/>
-        <v>0.69564176999999994</v>
+        <v>0.69381128000000003</v>
       </c>
       <c r="D101">
         <f>PRODUCT($C$2:C101)</f>
-        <v>1.3621867159524988E-2</v>
+        <v>1.8258378430897969E-2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3808,15 +3815,15 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.32164382000000002</v>
+        <v>0.33125700000000002</v>
       </c>
       <c r="C102">
         <f t="shared" si="1"/>
-        <v>0.67835617999999998</v>
+        <v>0.66874299999999998</v>
       </c>
       <c r="D102">
         <f>PRODUCT($C$2:C102)</f>
-        <v>9.2404777708028213E-3</v>
+        <v>1.2210162767013999E-2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -3824,15 +3831,15 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.33943960000000001</v>
+        <v>0.35315391000000002</v>
       </c>
       <c r="C103">
         <f t="shared" si="1"/>
-        <v>0.66056040000000005</v>
+        <v>0.64684608999999993</v>
       </c>
       <c r="D103">
         <f>PRODUCT($C$2:C103)</f>
-        <v>6.10389369247262E-3</v>
+        <v>7.898096044106585E-3</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -3840,15 +3847,15 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.35791173999999998</v>
+        <v>0.37549806000000002</v>
       </c>
       <c r="C104">
         <f t="shared" si="1"/>
-        <v>0.64208825999999997</v>
+        <v>0.62450194000000003</v>
       </c>
       <c r="D104">
         <f>PRODUCT($C$2:C104)</f>
-        <v>3.9192384802247196E-3</v>
+        <v>4.9323763018508885E-3</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -3856,15 +3863,15 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.37649768</v>
+        <v>0.39819948999999999</v>
       </c>
       <c r="C105">
         <f t="shared" si="1"/>
-        <v>0.62350232000000005</v>
+        <v>0.60180051000000001</v>
       </c>
       <c r="D105">
         <f>PRODUCT($C$2:C105)</f>
-        <v>2.4436542850533871E-3</v>
+        <v>2.9683065739657785E-3</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -3872,15 +3879,15 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.39599906000000001</v>
+        <v>0.42116281</v>
       </c>
       <c r="C106">
         <f t="shared" si="1"/>
-        <v>0.60400093999999993</v>
+        <v>0.57883719</v>
       </c>
       <c r="D106">
         <f>PRODUCT($C$2:C106)</f>
-        <v>1.4759694852072736E-3</v>
+        <v>1.7181662363328783E-3</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3888,15 +3895,15 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.41575617999999998</v>
+        <v>0.44428855</v>
       </c>
       <c r="C107">
         <f t="shared" si="1"/>
-        <v>0.58424381999999997</v>
+        <v>0.55571145</v>
       </c>
       <c r="D107">
         <f>PRODUCT($C$2:C107)</f>
-        <v>8.6232605024093095E-4</v>
+        <v>9.5480465053358649E-4</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3904,15 +3911,15 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.43584621000000001</v>
+        <v>0.46747463</v>
       </c>
       <c r="C108">
         <f t="shared" si="1"/>
-        <v>0.56415378999999999</v>
+        <v>0.53252537</v>
       </c>
       <c r="D108">
         <f>PRODUCT($C$2:C108)</f>
-        <v>4.864845094591516E-4</v>
+        <v>5.084576998031188E-4</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3920,15 +3927,15 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.45635111</v>
+        <v>0.4906179</v>
       </c>
       <c r="C109">
         <f t="shared" si="1"/>
-        <v>0.54364889000000005</v>
+        <v>0.50938210000000006</v>
       </c>
       <c r="D109">
         <f>PRODUCT($C$2:C109)</f>
-        <v>2.6447676356966229E-4</v>
+        <v>2.5899925088688228E-4</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -3936,15 +3943,15 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.47840790999999999</v>
+        <v>0.51361575000000004</v>
       </c>
       <c r="C110">
         <f t="shared" si="1"/>
-        <v>0.52159208999999995</v>
+        <v>0.48638424999999996</v>
       </c>
       <c r="D110">
         <f>PRODUCT($C$2:C110)</f>
-        <v>1.3794898786673599E-4</v>
+        <v>1.2597315639317807E-4</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -3952,15 +3959,15 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.50705977000000002</v>
+        <v>0.53636771000000005</v>
       </c>
       <c r="C111">
         <f t="shared" si="1"/>
-        <v>0.49294022999999998</v>
+        <v>0.46363228999999995</v>
       </c>
       <c r="D111">
         <f>PRODUCT($C$2:C111)</f>
-        <v>6.8000605807296051E-5</v>
+        <v>5.8405222977097284E-5</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
